--- a/resources/CallPriceTemplate.xlsx
+++ b/resources/CallPriceTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Dropbox\Current Semester\03_Financial Economics\99_Playground\WorDerivative\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6081A050-8409-4A6D-8C16-B40A305AB3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673F696C-96AE-4D64-9C6D-240C48F71AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13120" xr2:uid="{F151E61B-9226-4A22-8B98-D43F1BB2B395}"/>
   </bookViews>
@@ -550,9 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735BD93A-8A8F-4FCA-96E3-0FA0548676E8}">
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="B2:C10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3078,18 +3076,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3109,6 +3107,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49901E8F-D58B-4F99-88F1-D992237F6192}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3C66CE4-80D0-4535-8D6B-69FA3B72DCED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -3121,12 +3127,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49901E8F-D58B-4F99-88F1-D992237F6192}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>